--- a/va_facility_data_2025-02-20/St. Petersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Petersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Petersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Petersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R82e51158e2b04b42a9ead0579ac10811"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R14535fc6b2f5403282b04bc40758bb6c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra24eb695a0f54ce79812a6a8464538e1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb96353369aa441b0ac36be22de48ddc9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R49cf8b0319f94cdd9e99c64e02551c32"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra295b153226342e380c0dd291ff0b19f"/>
   </x:sheets>
 </x:workbook>
 </file>
